--- a/guide/shr-base-Condition.xlsx
+++ b/guide/shr-base-Condition.xlsx
@@ -662,7 +662,7 @@
   </si>
   <si>
     <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+Period {[]} {[]}string {[]} {[]}</t>
   </si>
   <si>
     <t>Estimated or actual date,  date-time, or age</t>
